--- a/source data/007_ESI/entrada_ec_2023.xlsx
+++ b/source data/007_ESI/entrada_ec_2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>Año</t>
   </si>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +559,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>62078</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>65430</v>
+      </c>
+      <c r="D11">
+        <v>2023</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
